--- a/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T10:43:15+00:00</t>
+    <t>2025-11-17T16:08:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-17T16:08:32+00:00</t>
+    <t>2025-11-18T10:18:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:18:37+00:00</t>
+    <t>2025-11-18T10:31:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:31:28+00:00</t>
+    <t>2025-11-18T14:30:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T14:30:08+00:00</t>
+    <t>2025-11-18T15:24:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T15:24:05+00:00</t>
+    <t>2025-11-19T16:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T16:22:07+00:00</t>
+    <t>2025-11-20T10:32:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-20T10:32:05+00:00</t>
+    <t>2025-11-20T16:06:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-20T16:06:37+00:00</t>
+    <t>2025-11-21T09:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T09:00:00+00:00</t>
+    <t>2025-11-26T10:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -120,7 +120,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>7</t>
+    <t>6</t>
   </si>
   <si>
     <t>Level</t>
@@ -166,12 +166,6 @@
   </si>
   <si>
     <t>Pièce(s) jointe(s) de l'action.</t>
-  </si>
-  <si>
-    <t>evaluationNonStructuree</t>
-  </si>
-  <si>
-    <t>Évaluation non structurée de l’action.</t>
   </si>
   <si>
     <t>objectif</t>
@@ -492,7 +486,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -584,18 +578,6 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-26T10:17:34+00:00</t>
+    <t>2025-11-27T09:05:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T09:05:35+00:00</t>
+    <t>2025-11-27T16:23:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T16:23:25+00:00</t>
+    <t>2025-11-27T17:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:29:29+00:00</t>
+    <t>2025-11-28T10:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T10:30:25+00:00</t>
+    <t>2025-12-01T08:11:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T08:11:14+00:00</t>
+    <t>2025-12-01T09:05:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T09:05:19+00:00</t>
+    <t>2025-12-02T17:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T17:18:03+00:00</t>
+    <t>2025-12-03T10:22:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T10:22:03+00:00</t>
+    <t>2025-12-05T09:54:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T09:54:12+00:00</t>
+    <t>2025-12-09T10:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-09T10:26:43+00:00</t>
+    <t>2025-12-10T10:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T10:50:40+00:00</t>
+    <t>2025-12-10T17:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T17:05:10+00:00</t>
+    <t>2025-12-11T09:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T09:07:04+00:00</t>
+    <t>2025-12-11T13:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T13:02:12+00:00</t>
+    <t>2025-12-12T08:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T08:56:07+00:00</t>
+    <t>2025-12-12T09:34:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T09:34:59+00:00</t>
+    <t>2025-12-12T10:25:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
+++ b/389-mapping---projet-personnalisé/ig/CodeSystem-input-tddui-task-action-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T10:25:32+00:00</t>
+    <t>2025-12-12T10:38:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
